--- a/biology/Zoologie/Epicrates_alvarezi/Epicrates_alvarezi.xlsx
+++ b/biology/Zoologie/Epicrates_alvarezi/Epicrates_alvarezi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epicrates alvarezi est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epicrates alvarezi est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Nord de l'Argentine, dans le Sud-Est de la Bolivie et dans l'Ouest du Paraguay[1].
-En Argentine on le trouve dans les provinces de[2] : Catamarca[3], Chaco —dans l'Ouest—, Córdoba —dans le Nord et l'Ouest—[4], Formosa —dans l'Ouest—[5], Jujuy —dans l'Est—, La Rioja —dans l'Est—, Salta, San Luis —dans l'extrême Nord—, Santa Fe —dans l'extrême Nord-Ouest—, Santiago del Estero et Tucumán[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Nord de l'Argentine, dans le Sud-Est de la Bolivie et dans l'Ouest du Paraguay.
+En Argentine on le trouve dans les provinces de : Catamarca, Chaco —dans l'Ouest—, Córdoba —dans le Nord et l'Ouest—, Formosa —dans l'Ouest—, Jujuy —dans l'Est—, La Rioja —dans l'Est—, Salta, San Luis —dans l'extrême Nord—, Santa Fe —dans l'extrême Nord-Ouest—, Santiago del Estero et Tucumán.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(es) J. W. Ábalos, E. C. Báez et R. Náder, « Serpientes de Santiago del Estero (República Argentina) », Acta Zoológica Lilloana, Argentine, vol. 20,‎ 1964, p. 211-283 (ISSN 0065-1729).</t>
         </is>
